--- a/Important/Wealth.xlsx
+++ b/Important/Wealth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JShu\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JShu\Important\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A67D225-267D-43CC-AF03-D92341788A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECB1E7-1115-47E6-8292-71DE0EBE7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开销(50%)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,9 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切记：不求暴富</t>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +58,14 @@
   </si>
   <si>
     <t>钱不算，容易花超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切记：不求暴富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班不存钱等于白上班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -140,7 +145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -451,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -488,7 +492,7 @@
         <v>2800</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C7" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C8" si="0">SUM(C3+B4)</f>
         <v>8400</v>
       </c>
       <c r="D4" s="4"/>
@@ -504,8 +508,8 @@
         <f t="shared" si="0"/>
         <v>13900</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -538,8 +542,13 @@
       <c r="A8" s="3">
         <v>45870</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>24700</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -593,7 +602,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -609,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -677,11 +686,11 @@
         <v>45839</v>
       </c>
       <c r="B7" s="7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,13 +745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E871D6-C0A8-4E29-AA6A-E729AD18974A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -756,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -793,7 +802,7 @@
         <v>4200</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C7" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C8" si="0">SUM(C3+B4)</f>
         <v>12600</v>
       </c>
       <c r="D4" s="7"/>
@@ -803,14 +812,14 @@
         <v>45778</v>
       </c>
       <c r="B5" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>14100</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>15600</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,7 +831,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>17100</v>
+        <v>18600</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -835,19 +844,26 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>20100</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
+        <v>21600</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>45870</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">

--- a/Important/Wealth.xlsx
+++ b/Important/Wealth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JShu\Important\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hello28256/Codes/JShu/Important/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ECB1E7-1115-47E6-8292-71DE0EBE7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75D136F-1B8D-5940-B52F-BFC67256C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开销(50%)" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +77,18 @@
   </si>
   <si>
     <t>上班不存钱等于白上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买电脑，准备国庆花销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想在场内持续玩下去，必须在场外拼命赚钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买电脑，准备国庆出去玩花销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,17 +457,17 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -458,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>45689</v>
       </c>
@@ -471,7 +494,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>45717</v>
       </c>
@@ -484,7 +507,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>45748</v>
       </c>
@@ -492,12 +515,12 @@
         <v>2800</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C8" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C10" si="0">SUM(C3+B4)</f>
         <v>8400</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>45778</v>
       </c>
@@ -512,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>45809</v>
       </c>
@@ -525,7 +548,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>45839</v>
       </c>
@@ -538,7 +561,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>45870</v>
       </c>
@@ -551,23 +574,35 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>45901</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>7000</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>31700</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>45931</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4">
+        <v>6800</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>38500</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>45962</v>
       </c>
@@ -575,7 +610,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>45992</v>
       </c>
@@ -583,7 +618,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>46023</v>
       </c>
@@ -602,12 +637,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -621,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>45689</v>
       </c>
@@ -633,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>45717</v>
       </c>
@@ -645,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>45748</v>
       </c>
@@ -653,11 +688,11 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C7" si="0">SUM(C3+B4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C4:C6" si="0">SUM(C3+B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>45778</v>
       </c>
@@ -669,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>45809</v>
       </c>
@@ -681,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>45839</v>
       </c>
@@ -689,46 +724,59 @@
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C7" si="1">SUM(C6+B7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>45870</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>45901</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9" si="2">SUM(C8+B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>45931</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>45962</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>45992</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>46023</v>
       </c>
@@ -746,15 +794,15 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -768,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>45689</v>
       </c>
@@ -781,7 +829,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>45717</v>
       </c>
@@ -794,7 +842,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>45748</v>
       </c>
@@ -802,12 +850,12 @@
         <v>4200</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:C8" si="0">SUM(C3+B4)</f>
+        <f t="shared" ref="C4:C10" si="0">SUM(C3+B4)</f>
         <v>12600</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>45778</v>
       </c>
@@ -822,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>45809</v>
       </c>
@@ -835,7 +883,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>45839</v>
       </c>
@@ -850,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>45870</v>
       </c>
@@ -865,23 +913,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>45901</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>45931</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>45962</v>
       </c>
@@ -889,7 +951,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>45992</v>
       </c>
@@ -897,7 +959,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>46023</v>
       </c>
@@ -905,61 +967,61 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="1"/>
     </row>
   </sheetData>

--- a/Important/Wealth.xlsx
+++ b/Important/Wealth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hello28256/Codes/JShu/Important/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75D136F-1B8D-5940-B52F-BFC67256C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B46520-E11F-B443-A21D-3C5FEDA2160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="开销(50%)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,43 @@
   </si>
   <si>
     <t>购买电脑，准备国庆出去玩花销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益+本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH+Trump+BNB+币安人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写在最开始：
+2025年9月29日我从第一家公司离职了，只需要再上一天班就可以过国庆了，但我离职了，离职原因就不说了，十年之后这些都不重要。
+十年之后，我觉得最重要的是我自己是否成长，是否还在为生活奔波。
+简单介绍一下定投计划：
+1.该理财计划投资期限大于10年
+2.计划累计本金总和大于200w人民币(定投每个月工资的60%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,7 +192,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -173,6 +215,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,163 +513,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>45689</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2800</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>SUM(B2)</f>
         <v>2800</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>45717</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2800</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>SUM(C2+B3)</f>
         <v>5600</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>45748</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2800</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C10" si="0">SUM(C3+B4)</f>
         <v>8400</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>45778</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5500</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>13900</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>45809</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>17900</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45839</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3800</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>21700</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>45870</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>3000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>24700</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>45901</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>7000</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>31700</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>45931</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6800</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>38500</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>45962</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>45992</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>46023</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -643,145 +688,145 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45689</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <f>SUM(B2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45717</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <f>SUM(C2+B3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45748</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C6" si="0">SUM(C3+B4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45778</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45809</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45839</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
         <f t="shared" ref="C7" si="1">SUM(C6+B7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45870</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45901</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
         <f t="shared" ref="C9" si="2">SUM(C8+B9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45931</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45962</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45992</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>46023</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -791,240 +836,981 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E871D6-C0A8-4E29-AA6A-E729AD18974A}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
         <v>45689</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>4200</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>SUM(B2)</f>
         <v>4200</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="D2" s="6">
+        <v>4200</v>
+      </c>
+      <c r="E2" s="6">
+        <f>(D2-C2)/C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
         <v>45717</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>4200</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>SUM(C2+B3)</f>
         <v>8400</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="D3" s="6">
+        <v>8400</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E10" si="0">(D3-C3)/C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
         <v>45748</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>4200</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C10" si="0">SUM(C3+B4)</f>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C10" si="1">SUM(C3+B4)</f>
         <v>12600</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+      <c r="D4" s="6">
+        <v>12600</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
         <v>45778</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+      <c r="D5" s="6">
+        <v>15600</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>15600</v>
-      </c>
-      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
         <v>45809</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>3000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>18600</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18600</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>18600</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
         <v>45839</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>21600</v>
+      </c>
+      <c r="D7" s="6">
+        <v>21600</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>21600</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
         <v>45870</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>4000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="D8" s="6">
+        <v>25600</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>45901</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
         <v>25600</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>45901</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="D9" s="6">
+        <v>25600</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>45931</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
         <v>25600</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
+      <c r="D10" s="6">
+        <v>31500</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23046875</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45658</v>
+      </c>
+      <c r="H10" s="5">
         <v>45931</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>25600</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
         <v>45962</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
         <v>45992</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
         <v>46023</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>46113</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="5">
+        <v>46143</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="5">
+        <v>46174</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5">
+        <v>46204</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="5">
+        <v>46235</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="5">
+        <v>46266</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="5">
+        <v>46296</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="5">
+        <v>46327</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="5">
+        <v>46357</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5">
+        <v>46388</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="5">
+        <v>46419</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="5">
+        <v>46447</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="5">
+        <v>46478</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="5">
+        <v>46508</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
+      <c r="A30" s="5">
+        <v>46539</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
+      <c r="A31" s="5">
+        <v>46569</v>
+      </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
+      <c r="A32" s="5">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5">
+        <v>46692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5">
+        <v>46722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5">
+        <v>46784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5">
+        <v>46874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5">
+        <v>46905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5">
+        <v>46935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5">
+        <v>46966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5">
+        <v>47058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5">
+        <v>47119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5">
+        <v>47150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5">
+        <v>47239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5">
+        <v>47270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5">
+        <v>47331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5">
+        <v>47362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5">
+        <v>47423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="5">
+        <v>47453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5">
+        <v>47515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="5">
+        <v>47543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5">
+        <v>47604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5">
+        <v>47635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5">
+        <v>47665</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5">
+        <v>47696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5">
+        <v>47727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5">
+        <v>47757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5">
+        <v>47788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5">
+        <v>47818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5">
+        <v>47849</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5">
+        <v>47908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5">
+        <v>47939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5">
+        <v>47969</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5">
+        <v>48030</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5">
+        <v>48061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5">
+        <v>48092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5">
+        <v>48122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5">
+        <v>48153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5">
+        <v>48183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5">
+        <v>48214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5">
+        <v>48245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5">
+        <v>48274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5">
+        <v>48305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5">
+        <v>48335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5">
+        <v>48366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5">
+        <v>48396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5">
+        <v>48427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="5">
+        <v>48458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5">
+        <v>48488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="5">
+        <v>48519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5">
+        <v>48549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="5">
+        <v>48580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5">
+        <v>48611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5">
+        <v>48639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="5">
+        <v>48670</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5">
+        <v>48731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5">
+        <v>48761</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="5">
+        <v>48792</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="5">
+        <v>48823</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5">
+        <v>48853</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5">
+        <v>48884</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5">
+        <v>48914</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="5">
+        <v>48945</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="5">
+        <v>48976</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5">
+        <v>49004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="5">
+        <v>49035</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5">
+        <v>49065</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="5">
+        <v>49096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5">
+        <v>49126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="5">
+        <v>49157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="5">
+        <v>49188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5">
+        <v>49218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="5">
+        <v>49249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="5">
+        <v>49279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="5">
+        <v>49310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="5">
+        <v>49341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="5">
+        <v>49369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="5">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="5">
+        <v>49430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="5">
+        <v>49461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="5">
+        <v>49491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="5">
+        <v>49522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="5">
+        <v>49553</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="5">
+        <v>49583</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="5">
+        <v>49614</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="55" customHeight="1">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A133:G140"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
